--- a/Industry/201612-201908/HKD/MILLION/Analysis_37_27.1 - Traditional Toys and Games (HS Codes)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_37_27.1 - Traditional Toys and Games (HS Codes)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -28596,6 +28597,1291 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26739.682</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24549.842</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-8.189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14558.059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22330.997</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-9.038</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13551.464</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-6.914</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10515.507</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8895.397000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-15.407</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4431.287</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6678.234</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-24.925</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3925.403</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.416</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39.325</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.234</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30.439</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.906</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28.967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4814.539</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4991.628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.678</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3173.382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5114.262</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3363.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.005</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.333</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21.798</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22.902</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24.817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2125.473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2121.801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1419.159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2157.378</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1336.518</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-5.823</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.643000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.747999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1694.613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1709.22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1266.797</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1935.949</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.265</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1127.519</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-10.994</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.337</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.962</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.702</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.669</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1783.825</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1588.228</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-10.965</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1287.357</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1848.737</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.402</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1114.618</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-13.418</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.671</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.469</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.843</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.279</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1279.243</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1300.112</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.631</v>
+      </c>
+      <c r="E8" t="n">
+        <v>774.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1390.295</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.937</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1035.276</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.696</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.784</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.296</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.319</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.226</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2140.425</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2032.067</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5.062</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1046.937</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1514.645</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-25.463</v>
+      </c>
+      <c r="H9" t="n">
+        <v>620.723</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-40.711</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.005000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.276999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.783</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="n">
+        <v>519.304</v>
+      </c>
+      <c r="C10" t="n">
+        <v>429.781</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-17.239</v>
+      </c>
+      <c r="E10" t="n">
+        <v>312.14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>414.572</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.539</v>
+      </c>
+      <c r="H10" t="n">
+        <v>293.889</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-5.847</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.942</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" t="n">
+        <v>676.965</v>
+      </c>
+      <c r="C11" t="n">
+        <v>550.477</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-18.685</v>
+      </c>
+      <c r="E11" t="n">
+        <v>319.853</v>
+      </c>
+      <c r="F11" t="n">
+        <v>438.927</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20.264</v>
+      </c>
+      <c r="H11" t="n">
+        <v>277.515</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-13.237</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="n">
+        <v>299.217</v>
+      </c>
+      <c r="C12" t="n">
+        <v>354.969</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.633</v>
+      </c>
+      <c r="E12" t="n">
+        <v>202.473</v>
+      </c>
+      <c r="F12" t="n">
+        <v>321.18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-9.519</v>
+      </c>
+      <c r="H12" t="n">
+        <v>165.46</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-18.28</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" t="n">
+        <v>152.708</v>
+      </c>
+      <c r="C13" t="n">
+        <v>157.824</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.664</v>
+      </c>
+      <c r="F13" t="n">
+        <v>164.504</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.232</v>
+      </c>
+      <c r="H13" t="n">
+        <v>101.025</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.551</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.538</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.507</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.648</v>
+      </c>
+      <c r="F14" t="n">
+        <v>111.975</v>
+      </c>
+      <c r="G14" t="n">
+        <v>356.339</v>
+      </c>
+      <c r="H14" t="n">
+        <v>68.587</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-9.333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="n">
+        <v>501.861</v>
+      </c>
+      <c r="C15" t="n">
+        <v>176.212</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-64.88800000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.739</v>
+      </c>
+      <c r="F15" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-46.667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.492</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-30.678</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.532</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27.427</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40.421</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.276</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.307</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-18.668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85.887</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.702</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-8.824</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.399</v>
+      </c>
+      <c r="G17" t="n">
+        <v>76.95699999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.519</v>
+      </c>
+      <c r="I17" t="n">
+        <v>141.274</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36.949</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28.555</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-22.718</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32.413</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.136</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.558</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-55.301</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50.135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>38.606</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-22.994</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.686</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.942</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-19.852</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12.116</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-27.392</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="n">
+        <v>75.494</v>
+      </c>
+      <c r="C20" t="n">
+        <v>86.776</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.946</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.337999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20.059</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-76.884</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.407999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-9.958</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24.287</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24.665</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.938</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-47.546</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.674</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-6.63</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2463.518</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="G22" t="n">
+        <v>757.91</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I22" t="n">
+        <v>224.928</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1296.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="G23" t="n">
+        <v>60.469</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-72.569</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-89.364</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-68.181</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-99.089</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-92.26000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G27" t="n">
+        <v>633.85</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="5" min="4" width="9"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="9" min="7" width="9"/>
